--- a/batting-lineup.xlsx
+++ b/batting-lineup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fnpet\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1492AB84-1B72-4BE3-8DE1-5555D7E7116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE0ED26-41B4-408C-A512-652CBCFBCFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5490" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 2" guid="{8EB8FD7B-2F98-40EA-8940-EEFF47DDD366}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{F8454A7C-90D2-4F01-BB86-9040DD6B1F14}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{8EB8FD7B-2F98-40EA-8940-EEFF47DDD366}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Number</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Hupe (Tourney)</t>
+  </si>
+  <si>
+    <t>Doubles</t>
+  </si>
+  <si>
+    <t>Doubles %</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -440,11 +446,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -519,10 +558,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,28 +592,16 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,11 +881,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ref="B6:I6" si="3">(B47+B45+B43+B41+B39)/(B48+B46+B44+B42+B40)</f>
+        <f t="shared" ref="B6:I6" si="3">(B49+B47+B45+B43+B41)/(B50+B48+B46+B44+B42)</f>
         <v>0.9285714285714286</v>
       </c>
       <c r="C6" s="4">
@@ -1127,7 +1177,7 @@
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4">
-        <f t="shared" ref="K6:L6" si="4">(K47+K45+K43+K41+K39)/(K48+K46+K44+K42+K40)</f>
+        <f t="shared" ref="K6:L6" si="4">(K49+K47+K45+K43+K41)/(K50+K48+K46+K44+K42)</f>
         <v>0.8</v>
       </c>
       <c r="L6" s="4">
@@ -1142,7 +1192,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="9">
-        <f t="shared" ref="B7:L7" si="5">B9+B11+B13+B15+B17+B19+B21+B23+B25+B27+B29+B31+B33+B35+B37+B39+B41+B43+B45+B47+B49</f>
+        <f t="shared" ref="B7:L7" si="5">B11+B13+B15+B17+B19+B21+B23+B25+B27+B29+B31+B33+B35+B37+B39+B41+B43+B45+B47+B49+B51</f>
         <v>45</v>
       </c>
       <c r="C7" s="9">
@@ -1186,10 +1236,10 @@
         <v>15</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" ref="M7:M50" si="6">SUM(B7:L7)</f>
+        <f t="shared" ref="M7:M52" si="6">SUM(B7:L7)</f>
         <v>337</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="38">
         <f>M7/M8</f>
         <v>0.62523191094619668</v>
       </c>
@@ -1199,7 +1249,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="12">
-        <f t="shared" ref="B8:L8" si="7">B10+B12+B14+B16+B18+B20+B22+B24+B26+B28+B30+B32+B34+B36+B38+B40+B42+B44+B46+B48+B50</f>
+        <f t="shared" ref="B8:L8" si="7">B12+B14+B16+B18+B20+B22+B24+B26+B28+B30+B32+B34+B36+B38+B40+B42+B44+B46+B48+B50+B52</f>
         <v>56</v>
       </c>
       <c r="C8" s="12">
@@ -1246,1114 +1296,1126 @@
         <f t="shared" si="6"/>
         <v>539</v>
       </c>
-      <c r="N8" s="33"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="47">
+        <f>ROUNDUP(B10*B7,0)</f>
+        <v>9</v>
+      </c>
+      <c r="C9" s="47">
+        <f t="shared" ref="C9:L9" si="8">ROUNDUP(C10*C7,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D9" s="47">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="47">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="F9" s="47">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="47">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="47">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="47">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="L9" s="47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="49"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="50">
+        <v>0.18</v>
+      </c>
+      <c r="C10" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E10" s="50">
+        <v>0.24</v>
+      </c>
+      <c r="F10" s="50">
+        <v>0.21</v>
+      </c>
+      <c r="G10" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="50">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J10" s="50">
+        <v>0.06</v>
+      </c>
+      <c r="K10" s="50">
+        <v>0.35</v>
+      </c>
+      <c r="L10" s="50">
+        <v>0.04</v>
+      </c>
+      <c r="M10" s="48"/>
+      <c r="N10" s="49"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="14">
-        <v>2</v>
-      </c>
-      <c r="C9" s="14">
-        <v>2</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>3</v>
-      </c>
-      <c r="F9" s="14">
-        <v>3</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1</v>
-      </c>
-      <c r="H9" s="14">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14">
-        <v>2</v>
-      </c>
-      <c r="J9" s="14">
-        <v>2</v>
-      </c>
-      <c r="K9" s="14">
-        <v>3</v>
-      </c>
-      <c r="L9" s="14">
-        <v>2</v>
-      </c>
-      <c r="M9" s="10">
+      <c r="B11" s="14">
+        <v>2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>2</v>
+      </c>
+      <c r="K11" s="14">
+        <v>3</v>
+      </c>
+      <c r="L11" s="14">
+        <v>2</v>
+      </c>
+      <c r="M11" s="10">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="N9" s="32">
-        <f>M9/M10</f>
+      <c r="N11" s="38">
+        <f>M11/M12</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="16">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16">
-        <v>3</v>
-      </c>
-      <c r="D10" s="16">
-        <v>2</v>
-      </c>
-      <c r="E10" s="17">
-        <v>3</v>
-      </c>
-      <c r="F10" s="16">
-        <v>3</v>
-      </c>
-      <c r="G10" s="16">
-        <v>3</v>
-      </c>
-      <c r="H10" s="16">
-        <v>3</v>
-      </c>
-      <c r="I10" s="16">
-        <v>2</v>
-      </c>
-      <c r="J10" s="16">
-        <v>3</v>
-      </c>
-      <c r="K10" s="16">
-        <v>3</v>
-      </c>
-      <c r="L10" s="16">
-        <v>2</v>
-      </c>
-      <c r="M10" s="13">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="16">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>3</v>
+      </c>
+      <c r="H12" s="16">
+        <v>3</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="16">
+        <v>3</v>
+      </c>
+      <c r="K12" s="16">
+        <v>3</v>
+      </c>
+      <c r="L12" s="16">
+        <v>2</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="N12" s="39"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="18">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18">
-        <v>2</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18">
-        <v>1</v>
-      </c>
-      <c r="K11" s="18">
-        <v>2</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18">
+        <v>2</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="N11" s="32">
-        <f>M11/M12</f>
+      <c r="N13" s="38">
+        <f>M13/M14</f>
         <v>0.47368421052631576</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="20">
-        <v>2</v>
-      </c>
-      <c r="C12" s="20">
-        <v>2</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
-        <v>2</v>
-      </c>
-      <c r="F12" s="20">
-        <v>2</v>
-      </c>
-      <c r="G12" s="20">
-        <v>2</v>
-      </c>
-      <c r="H12" s="21">
-        <v>2</v>
-      </c>
-      <c r="I12" s="20">
-        <v>2</v>
-      </c>
-      <c r="J12" s="20">
-        <v>2</v>
-      </c>
-      <c r="K12" s="20">
-        <v>2</v>
-      </c>
-      <c r="L12" s="20">
-        <v>1</v>
-      </c>
-      <c r="M12" s="13">
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="20">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <v>2</v>
+      </c>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
+      <c r="G14" s="20">
+        <v>2</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2</v>
+      </c>
+      <c r="I14" s="20">
+        <v>2</v>
+      </c>
+      <c r="J14" s="20">
+        <v>2</v>
+      </c>
+      <c r="K14" s="20">
+        <v>2</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1</v>
+      </c>
+      <c r="M14" s="13">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="N12" s="33"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="N14" s="39"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="19">
-        <v>2</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>2</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <v>1</v>
-      </c>
-      <c r="K13" s="18">
-        <v>1</v>
-      </c>
-      <c r="L13" s="18">
-        <v>1</v>
-      </c>
-      <c r="M13" s="22">
+      <c r="B15" s="19">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18">
+        <v>1</v>
+      </c>
+      <c r="M15" s="22">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="N13" s="32">
-        <f>M13/M14</f>
+      <c r="N15" s="38">
+        <f>M15/M16</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="21">
-        <v>2</v>
-      </c>
-      <c r="C14" s="21">
-        <v>2</v>
-      </c>
-      <c r="D14" s="20">
-        <v>2</v>
-      </c>
-      <c r="E14" s="20">
-        <v>2</v>
-      </c>
-      <c r="F14" s="20">
-        <v>2</v>
-      </c>
-      <c r="G14" s="20">
-        <v>2</v>
-      </c>
-      <c r="H14" s="20">
-        <v>1</v>
-      </c>
-      <c r="I14" s="20">
-        <v>2</v>
-      </c>
-      <c r="J14" s="20">
-        <v>2</v>
-      </c>
-      <c r="K14" s="20">
-        <v>2</v>
-      </c>
-      <c r="L14" s="20">
-        <v>2</v>
-      </c>
-      <c r="M14" s="23">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="21">
+        <v>2</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
+        <v>2</v>
+      </c>
+      <c r="F16" s="20">
+        <v>2</v>
+      </c>
+      <c r="G16" s="20">
+        <v>2</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2</v>
+      </c>
+      <c r="J16" s="20">
+        <v>2</v>
+      </c>
+      <c r="K16" s="20">
+        <v>2</v>
+      </c>
+      <c r="L16" s="20">
+        <v>2</v>
+      </c>
+      <c r="M16" s="23">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="N16" s="39"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="18">
-        <v>2</v>
-      </c>
-      <c r="C15" s="18">
-        <v>2</v>
-      </c>
-      <c r="D15" s="19">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18">
-        <v>2</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19">
-        <v>2</v>
-      </c>
-      <c r="J15" s="18">
-        <v>0</v>
-      </c>
-      <c r="K15" s="19">
-        <v>2</v>
-      </c>
-      <c r="L15" s="18">
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
+      <c r="B17" s="18">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <v>2</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
+        <v>2</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="22">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="N15" s="32">
-        <f>M15/M16</f>
+      <c r="N17" s="38">
+        <f>M17/M18</f>
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="20">
-        <v>2</v>
-      </c>
-      <c r="C16" s="20">
-        <v>2</v>
-      </c>
-      <c r="D16" s="21">
-        <v>2</v>
-      </c>
-      <c r="E16" s="20">
-        <v>2</v>
-      </c>
-      <c r="F16" s="20">
-        <v>2</v>
-      </c>
-      <c r="G16" s="20">
-        <v>2</v>
-      </c>
-      <c r="H16" s="20">
-        <v>2</v>
-      </c>
-      <c r="I16" s="21">
-        <v>2</v>
-      </c>
-      <c r="J16" s="20">
-        <v>2</v>
-      </c>
-      <c r="K16" s="21">
-        <v>2</v>
-      </c>
-      <c r="L16" s="20">
-        <v>1</v>
-      </c>
-      <c r="M16" s="23">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="20">
+        <v>2</v>
+      </c>
+      <c r="C18" s="20">
+        <v>2</v>
+      </c>
+      <c r="D18" s="21">
+        <v>2</v>
+      </c>
+      <c r="E18" s="20">
+        <v>2</v>
+      </c>
+      <c r="F18" s="20">
+        <v>2</v>
+      </c>
+      <c r="G18" s="20">
+        <v>2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>2</v>
+      </c>
+      <c r="I18" s="21">
+        <v>2</v>
+      </c>
+      <c r="J18" s="20">
+        <v>2</v>
+      </c>
+      <c r="K18" s="21">
+        <v>2</v>
+      </c>
+      <c r="L18" s="20">
+        <v>1</v>
+      </c>
+      <c r="M18" s="23">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="N16" s="33"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="N18" s="39"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="18">
-        <v>2</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="18">
-        <v>2</v>
-      </c>
-      <c r="E17" s="18">
-        <v>2</v>
-      </c>
-      <c r="F17" s="18">
-        <v>2</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18">
-        <v>2</v>
-      </c>
-      <c r="I17" s="19">
-        <v>2</v>
-      </c>
-      <c r="J17" s="24">
-        <v>1</v>
-      </c>
-      <c r="K17" s="18">
-        <v>2</v>
-      </c>
-      <c r="L17" s="18">
-        <v>1</v>
-      </c>
-      <c r="M17" s="22">
+      <c r="B19" s="18">
+        <v>2</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2</v>
+      </c>
+      <c r="F19" s="18">
+        <v>2</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>2</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="24">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18">
+        <v>2</v>
+      </c>
+      <c r="L19" s="18">
+        <v>1</v>
+      </c>
+      <c r="M19" s="22">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="N17" s="32">
-        <f>M17/M18</f>
+      <c r="N19" s="38">
+        <f>M19/M20</f>
         <v>0.77272727272727271</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="20">
-        <v>2</v>
-      </c>
-      <c r="C18" s="20">
-        <v>2</v>
-      </c>
-      <c r="D18" s="20">
-        <v>2</v>
-      </c>
-      <c r="E18" s="20">
-        <v>2</v>
-      </c>
-      <c r="F18" s="20">
-        <v>2</v>
-      </c>
-      <c r="G18" s="20">
-        <v>2</v>
-      </c>
-      <c r="H18" s="20">
-        <v>2</v>
-      </c>
-      <c r="I18" s="21">
-        <v>2</v>
-      </c>
-      <c r="J18" s="25">
-        <v>2</v>
-      </c>
-      <c r="K18" s="20">
-        <v>2</v>
-      </c>
-      <c r="L18" s="20">
-        <v>2</v>
-      </c>
-      <c r="M18" s="23">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="20">
+        <v>2</v>
+      </c>
+      <c r="E20" s="20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="20">
+        <v>2</v>
+      </c>
+      <c r="H20" s="20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="21">
+        <v>2</v>
+      </c>
+      <c r="J20" s="25">
+        <v>2</v>
+      </c>
+      <c r="K20" s="20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="20">
+        <v>2</v>
+      </c>
+      <c r="M20" s="23">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="N18" s="33"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="18">
-        <v>2</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18">
-        <v>2</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18">
-        <v>2</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="18">
-        <v>2</v>
-      </c>
-      <c r="J19" s="18">
-        <v>1</v>
-      </c>
-      <c r="K19" s="18">
-        <v>3</v>
-      </c>
-      <c r="L19" s="19">
-        <v>1</v>
-      </c>
-      <c r="M19" s="22">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="N19" s="32">
-        <f>M19/M20</f>
-        <v>0.76190476190476186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20">
-        <v>2</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20">
-        <v>3</v>
-      </c>
-      <c r="G20" s="21">
-        <v>2</v>
-      </c>
-      <c r="H20" s="21">
-        <v>2</v>
-      </c>
-      <c r="I20" s="20">
-        <v>3</v>
-      </c>
-      <c r="J20" s="20">
-        <v>2</v>
-      </c>
-      <c r="K20" s="20">
-        <v>3</v>
-      </c>
-      <c r="L20" s="21">
-        <v>2</v>
-      </c>
-      <c r="M20" s="23">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="N20" s="33"/>
+      <c r="N20" s="39"/>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="18">
+        <v>2</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18">
+        <v>2</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18">
+        <v>2</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <v>2</v>
+      </c>
+      <c r="I21" s="18">
+        <v>2</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
+        <v>3</v>
+      </c>
+      <c r="L21" s="19">
+        <v>1</v>
+      </c>
+      <c r="M21" s="22">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="N21" s="38">
+        <f>M21/M22</f>
+        <v>0.76190476190476186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="20">
+        <v>2</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20">
+        <v>2</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20">
+        <v>3</v>
+      </c>
+      <c r="G22" s="21">
+        <v>2</v>
+      </c>
+      <c r="H22" s="21">
+        <v>2</v>
+      </c>
+      <c r="I22" s="20">
+        <v>3</v>
+      </c>
+      <c r="J22" s="20">
+        <v>2</v>
+      </c>
+      <c r="K22" s="20">
+        <v>3</v>
+      </c>
+      <c r="L22" s="21">
+        <v>2</v>
+      </c>
+      <c r="M22" s="23">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="18">
-        <v>0</v>
-      </c>
-      <c r="C21" s="18">
-        <v>3</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1</v>
-      </c>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
-      <c r="F21" s="19">
-        <v>3</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18">
-        <v>1</v>
-      </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18">
-        <v>3</v>
-      </c>
-      <c r="L21" s="18">
-        <v>1</v>
-      </c>
-      <c r="M21" s="22">
+      <c r="B23" s="18">
+        <v>0</v>
+      </c>
+      <c r="C23" s="18">
+        <v>3</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
+        <v>2</v>
+      </c>
+      <c r="F23" s="19">
+        <v>3</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18">
+        <v>3</v>
+      </c>
+      <c r="L23" s="18">
+        <v>1</v>
+      </c>
+      <c r="M23" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="N21" s="32">
-        <f>M21/M22</f>
+      <c r="N23" s="38">
+        <f>M23/M24</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="20">
-        <v>2</v>
-      </c>
-      <c r="C22" s="20">
-        <v>3</v>
-      </c>
-      <c r="D22" s="20">
-        <v>3</v>
-      </c>
-      <c r="E22" s="20">
-        <v>3</v>
-      </c>
-      <c r="F22" s="21">
-        <v>3</v>
-      </c>
-      <c r="G22" s="20">
-        <v>2</v>
-      </c>
-      <c r="H22" s="20">
-        <v>2</v>
-      </c>
-      <c r="I22" s="20">
-        <v>2</v>
-      </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20">
-        <v>3</v>
-      </c>
-      <c r="L22" s="20">
-        <v>2</v>
-      </c>
-      <c r="M22" s="23">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="20">
+        <v>2</v>
+      </c>
+      <c r="C24" s="20">
+        <v>3</v>
+      </c>
+      <c r="D24" s="20">
+        <v>3</v>
+      </c>
+      <c r="E24" s="20">
+        <v>3</v>
+      </c>
+      <c r="F24" s="21">
+        <v>3</v>
+      </c>
+      <c r="G24" s="20">
+        <v>2</v>
+      </c>
+      <c r="H24" s="20">
+        <v>2</v>
+      </c>
+      <c r="I24" s="20">
+        <v>2</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20">
+        <v>3</v>
+      </c>
+      <c r="L24" s="20">
+        <v>2</v>
+      </c>
+      <c r="M24" s="23">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="N24" s="39"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="18">
-        <v>2</v>
-      </c>
-      <c r="C23" s="18">
-        <v>2</v>
-      </c>
-      <c r="D23" s="18">
-        <v>2</v>
-      </c>
-      <c r="E23" s="18">
-        <v>2</v>
-      </c>
-      <c r="F23" s="18">
-        <v>3</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
-        <v>1</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19">
-        <v>2</v>
-      </c>
-      <c r="L23" s="18">
-        <v>0</v>
-      </c>
-      <c r="M23" s="22">
+      <c r="B25" s="18">
+        <v>2</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>3</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19">
+        <v>2</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="N23" s="32">
-        <f>M23/M24</f>
+      <c r="N25" s="38">
+        <f>M25/M26</f>
         <v>0.51851851851851849</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="20">
-        <v>3</v>
-      </c>
-      <c r="C24" s="20">
-        <v>3</v>
-      </c>
-      <c r="D24" s="20">
-        <v>2</v>
-      </c>
-      <c r="E24" s="20">
-        <v>3</v>
-      </c>
-      <c r="F24" s="20">
-        <v>3</v>
-      </c>
-      <c r="G24" s="20">
-        <v>2</v>
-      </c>
-      <c r="H24" s="20">
-        <v>3</v>
-      </c>
-      <c r="I24" s="20">
-        <v>3</v>
-      </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21">
-        <v>3</v>
-      </c>
-      <c r="L24" s="20">
-        <v>2</v>
-      </c>
-      <c r="M24" s="23">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="20">
+        <v>3</v>
+      </c>
+      <c r="C26" s="20">
+        <v>3</v>
+      </c>
+      <c r="D26" s="20">
+        <v>2</v>
+      </c>
+      <c r="E26" s="20">
+        <v>3</v>
+      </c>
+      <c r="F26" s="20">
+        <v>3</v>
+      </c>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
+      <c r="H26" s="20">
+        <v>3</v>
+      </c>
+      <c r="I26" s="20">
+        <v>3</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="21">
+        <v>3</v>
+      </c>
+      <c r="L26" s="20">
+        <v>2</v>
+      </c>
+      <c r="M26" s="23">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="N24" s="33"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="18">
-        <v>2</v>
-      </c>
-      <c r="C25" s="19">
-        <v>3</v>
-      </c>
-      <c r="D25" s="18">
-        <v>3</v>
-      </c>
-      <c r="E25" s="19">
-        <v>3</v>
-      </c>
-      <c r="F25" s="18">
-        <v>3</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <v>0</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
-      <c r="L25" s="18">
-        <v>0</v>
-      </c>
-      <c r="M25" s="22">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="N25" s="32">
-        <f>M25/M26</f>
-        <v>0.59259259259259256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="20">
-        <v>3</v>
-      </c>
-      <c r="C26" s="21">
-        <v>3</v>
-      </c>
-      <c r="D26" s="20">
-        <v>3</v>
-      </c>
-      <c r="E26" s="21">
-        <v>3</v>
-      </c>
-      <c r="F26" s="20">
-        <v>3</v>
-      </c>
-      <c r="G26" s="20">
-        <v>3</v>
-      </c>
-      <c r="H26" s="20">
-        <v>2</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20">
-        <v>2</v>
-      </c>
-      <c r="K26" s="20">
-        <v>3</v>
-      </c>
-      <c r="L26" s="20">
-        <v>2</v>
-      </c>
-      <c r="M26" s="23">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="N26" s="33"/>
+      <c r="N26" s="39"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="18">
+        <v>2</v>
+      </c>
+      <c r="C27" s="19">
+        <v>3</v>
+      </c>
+      <c r="D27" s="18">
+        <v>3</v>
+      </c>
+      <c r="E27" s="19">
+        <v>3</v>
+      </c>
+      <c r="F27" s="18">
+        <v>3</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1</v>
+      </c>
+      <c r="L27" s="18">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="N27" s="38">
+        <f>M27/M28</f>
+        <v>0.59259259259259256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="20">
+        <v>3</v>
+      </c>
+      <c r="C28" s="21">
+        <v>3</v>
+      </c>
+      <c r="D28" s="20">
+        <v>3</v>
+      </c>
+      <c r="E28" s="21">
+        <v>3</v>
+      </c>
+      <c r="F28" s="20">
+        <v>3</v>
+      </c>
+      <c r="G28" s="20">
+        <v>3</v>
+      </c>
+      <c r="H28" s="20">
+        <v>2</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20">
+        <v>2</v>
+      </c>
+      <c r="K28" s="20">
+        <v>3</v>
+      </c>
+      <c r="L28" s="20">
+        <v>2</v>
+      </c>
+      <c r="M28" s="23">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="N28" s="39"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="18">
-        <v>2</v>
-      </c>
-      <c r="C27" s="18">
-        <v>3</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
-        <v>2</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
-      <c r="H27" s="18">
-        <v>1</v>
-      </c>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <v>2</v>
-      </c>
-      <c r="K27" s="18">
-        <v>2</v>
-      </c>
-      <c r="L27" s="18">
-        <v>1</v>
-      </c>
-      <c r="M27" s="22">
+      <c r="B29" s="18">
+        <v>2</v>
+      </c>
+      <c r="C29" s="18">
+        <v>3</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="19">
+        <v>2</v>
+      </c>
+      <c r="K29" s="18">
+        <v>2</v>
+      </c>
+      <c r="L29" s="18">
+        <v>1</v>
+      </c>
+      <c r="M29" s="22">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="N27" s="32">
-        <f>M27/M28</f>
+      <c r="N29" s="38">
+        <f>M29/M30</f>
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="20">
-        <v>2</v>
-      </c>
-      <c r="C28" s="20">
-        <v>3</v>
-      </c>
-      <c r="D28" s="20">
-        <v>2</v>
-      </c>
-      <c r="E28" s="20">
-        <v>2</v>
-      </c>
-      <c r="F28" s="20">
-        <v>3</v>
-      </c>
-      <c r="G28" s="20">
-        <v>2</v>
-      </c>
-      <c r="H28" s="20">
-        <v>2</v>
-      </c>
-      <c r="I28" s="20">
-        <v>2</v>
-      </c>
-      <c r="J28" s="21">
-        <v>2</v>
-      </c>
-      <c r="K28" s="20">
-        <v>2</v>
-      </c>
-      <c r="L28" s="20">
-        <v>2</v>
-      </c>
-      <c r="M28" s="23">
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="20">
+        <v>2</v>
+      </c>
+      <c r="C30" s="20">
+        <v>3</v>
+      </c>
+      <c r="D30" s="20">
+        <v>2</v>
+      </c>
+      <c r="E30" s="20">
+        <v>2</v>
+      </c>
+      <c r="F30" s="20">
+        <v>3</v>
+      </c>
+      <c r="G30" s="20">
+        <v>2</v>
+      </c>
+      <c r="H30" s="20">
+        <v>2</v>
+      </c>
+      <c r="I30" s="20">
+        <v>2</v>
+      </c>
+      <c r="J30" s="21">
+        <v>2</v>
+      </c>
+      <c r="K30" s="20">
+        <v>2</v>
+      </c>
+      <c r="L30" s="20">
+        <v>2</v>
+      </c>
+      <c r="M30" s="23">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+      <c r="N30" s="39"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="18">
-        <v>2</v>
-      </c>
-      <c r="C29" s="18">
-        <v>3</v>
-      </c>
-      <c r="D29" s="18">
-        <v>1</v>
-      </c>
-      <c r="E29" s="18">
-        <v>3</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18">
-        <v>1</v>
-      </c>
-      <c r="J29" s="18">
-        <v>1</v>
-      </c>
-      <c r="K29" s="19">
-        <v>2</v>
-      </c>
-      <c r="L29" s="18">
-        <v>0</v>
-      </c>
-      <c r="M29" s="22">
+      <c r="B31" s="18">
+        <v>2</v>
+      </c>
+      <c r="C31" s="18">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18">
+        <v>3</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1</v>
+      </c>
+      <c r="K31" s="19">
+        <v>2</v>
+      </c>
+      <c r="L31" s="18">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="N29" s="32">
-        <f>M29/M30</f>
+      <c r="N31" s="38">
+        <f>M31/M32</f>
         <v>0.57692307692307687</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="20">
-        <v>2</v>
-      </c>
-      <c r="C30" s="20">
-        <v>3</v>
-      </c>
-      <c r="D30" s="20">
-        <v>3</v>
-      </c>
-      <c r="E30" s="20">
-        <v>3</v>
-      </c>
-      <c r="F30" s="20">
-        <v>2</v>
-      </c>
-      <c r="G30" s="20">
-        <v>2</v>
-      </c>
-      <c r="H30" s="20">
-        <v>2</v>
-      </c>
-      <c r="I30" s="20">
-        <v>2</v>
-      </c>
-      <c r="J30" s="20">
-        <v>3</v>
-      </c>
-      <c r="K30" s="21">
-        <v>2</v>
-      </c>
-      <c r="L30" s="20">
-        <v>2</v>
-      </c>
-      <c r="M30" s="23">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="20">
+        <v>2</v>
+      </c>
+      <c r="C32" s="20">
+        <v>3</v>
+      </c>
+      <c r="D32" s="20">
+        <v>3</v>
+      </c>
+      <c r="E32" s="20">
+        <v>3</v>
+      </c>
+      <c r="F32" s="20">
+        <v>2</v>
+      </c>
+      <c r="G32" s="20">
+        <v>2</v>
+      </c>
+      <c r="H32" s="20">
+        <v>2</v>
+      </c>
+      <c r="I32" s="20">
+        <v>2</v>
+      </c>
+      <c r="J32" s="20">
+        <v>3</v>
+      </c>
+      <c r="K32" s="21">
+        <v>2</v>
+      </c>
+      <c r="L32" s="20">
+        <v>2</v>
+      </c>
+      <c r="M32" s="23">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="N30" s="33"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="N32" s="39"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="18">
-        <v>3</v>
-      </c>
-      <c r="C31" s="18">
-        <v>1</v>
-      </c>
-      <c r="D31" s="18">
-        <v>0</v>
-      </c>
-      <c r="E31" s="18">
+      <c r="B33" s="18">
+        <v>3</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
         <v>4</v>
       </c>
-      <c r="F31" s="18">
-        <v>0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>2</v>
-      </c>
-      <c r="H31" s="19">
-        <v>3</v>
-      </c>
-      <c r="I31" s="19">
-        <v>3</v>
-      </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18">
-        <v>3</v>
-      </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="22">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="N31" s="32">
-        <f>M31/M32</f>
-        <v>0.5757575757575758</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="20">
-        <v>4</v>
-      </c>
-      <c r="C32" s="20">
-        <v>4</v>
-      </c>
-      <c r="D32" s="20">
-        <v>4</v>
-      </c>
-      <c r="E32" s="20">
-        <v>4</v>
-      </c>
-      <c r="F32" s="20">
-        <v>4</v>
-      </c>
-      <c r="G32" s="21">
-        <v>3</v>
-      </c>
-      <c r="H32" s="21">
-        <v>3</v>
-      </c>
-      <c r="I32" s="21">
-        <v>3</v>
-      </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20">
-        <v>4</v>
-      </c>
-      <c r="L32" s="20"/>
-      <c r="M32" s="23">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="N32" s="33"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="19">
-        <v>4</v>
-      </c>
-      <c r="C33" s="18">
-        <v>3</v>
-      </c>
-      <c r="D33" s="18">
-        <v>2</v>
-      </c>
-      <c r="E33" s="19">
-        <v>3</v>
-      </c>
       <c r="F33" s="18">
-        <v>2</v>
-      </c>
-      <c r="G33" s="18">
-        <v>2</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2</v>
+      </c>
+      <c r="H33" s="19">
+        <v>3</v>
+      </c>
+      <c r="I33" s="19">
+        <v>3</v>
       </c>
       <c r="J33" s="18"/>
       <c r="K33" s="18">
-        <v>2</v>
-      </c>
-      <c r="L33" s="18">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L33" s="18"/>
       <c r="M33" s="22">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="N33" s="32">
+        <v>19</v>
+      </c>
+      <c r="N33" s="38">
         <f>M33/M34</f>
-        <v>0.72413793103448276</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="21">
+      <c r="A34" s="33"/>
+      <c r="B34" s="20">
         <v>4</v>
       </c>
       <c r="C34" s="20">
         <v>4</v>
       </c>
       <c r="D34" s="20">
-        <v>3</v>
-      </c>
-      <c r="E34" s="21">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E34" s="20">
+        <v>4</v>
       </c>
       <c r="F34" s="20">
-        <v>3</v>
-      </c>
-      <c r="G34" s="20">
-        <v>3</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20">
+        <v>4</v>
+      </c>
+      <c r="G34" s="21">
+        <v>3</v>
+      </c>
+      <c r="H34" s="21">
+        <v>3</v>
+      </c>
+      <c r="I34" s="21">
         <v>3</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="20">
-        <v>3</v>
-      </c>
-      <c r="L34" s="20">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L34" s="20"/>
       <c r="M34" s="23">
         <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="N34" s="33"/>
+        <v>33</v>
+      </c>
+      <c r="N34" s="39"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="18">
-        <v>2</v>
-      </c>
-      <c r="C35" s="19">
+      <c r="A35" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="19">
+        <v>4</v>
+      </c>
+      <c r="C35" s="18">
         <v>3</v>
       </c>
       <c r="D35" s="18">
-        <v>1</v>
-      </c>
-      <c r="E35" s="18">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E35" s="19">
+        <v>3</v>
       </c>
       <c r="F35" s="18">
         <v>2</v>
@@ -2361,10 +2423,8 @@
       <c r="G35" s="18">
         <v>2</v>
       </c>
-      <c r="H35" s="18">
-        <v>2</v>
-      </c>
-      <c r="I35" s="19">
+      <c r="H35" s="18"/>
+      <c r="I35" s="18">
         <v>2</v>
       </c>
       <c r="J35" s="18"/>
@@ -2372,159 +2432,161 @@
         <v>2</v>
       </c>
       <c r="L35" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="22">
         <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="N35" s="32">
+        <v>21</v>
+      </c>
+      <c r="N35" s="38">
         <f>M35/M36</f>
-        <v>0.95238095238095233</v>
+        <v>0.72413793103448276</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="20">
-        <v>2</v>
-      </c>
-      <c r="C36" s="21">
-        <v>3</v>
+      <c r="A36" s="33"/>
+      <c r="B36" s="21">
+        <v>4</v>
+      </c>
+      <c r="C36" s="20">
+        <v>4</v>
       </c>
       <c r="D36" s="20">
-        <v>2</v>
-      </c>
-      <c r="E36" s="20">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E36" s="21">
+        <v>3</v>
       </c>
       <c r="F36" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="20">
-        <v>2</v>
-      </c>
-      <c r="H36" s="20">
-        <v>2</v>
-      </c>
-      <c r="I36" s="21">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20">
+        <v>3</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M36" s="23">
         <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="N36" s="33"/>
+        <v>29</v>
+      </c>
+      <c r="N36" s="39"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>29</v>
+      <c r="A37" s="34" t="s">
+        <v>28</v>
       </c>
       <c r="B37" s="18">
-        <v>3</v>
-      </c>
-      <c r="C37" s="18">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="C37" s="19">
+        <v>3</v>
       </c>
       <c r="D37" s="18">
-        <v>2</v>
-      </c>
-      <c r="E37" s="19">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E37" s="18">
+        <v>2</v>
       </c>
       <c r="F37" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37" s="18">
         <v>2</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="19">
+        <v>2</v>
+      </c>
       <c r="J37" s="18"/>
       <c r="K37" s="18">
         <v>2</v>
       </c>
       <c r="L37" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="22">
         <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="N37" s="32">
+        <v>20</v>
+      </c>
+      <c r="N37" s="38">
         <f>M37/M38</f>
-        <v>0.70370370370370372</v>
+        <v>0.95238095238095233</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="20">
-        <v>3</v>
-      </c>
-      <c r="C38" s="20">
+        <v>2</v>
+      </c>
+      <c r="C38" s="21">
         <v>3</v>
       </c>
       <c r="D38" s="20">
-        <v>3</v>
-      </c>
-      <c r="E38" s="21">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E38" s="20">
+        <v>2</v>
       </c>
       <c r="F38" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="20">
-        <v>3</v>
-      </c>
-      <c r="I38" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="I38" s="21">
+        <v>2</v>
+      </c>
       <c r="J38" s="20"/>
       <c r="K38" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L38" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M38" s="23">
         <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="N38" s="33"/>
+        <v>21</v>
+      </c>
+      <c r="N38" s="39"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="19">
-        <v>2</v>
+      <c r="A39" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="18">
+        <v>3</v>
       </c>
       <c r="C39" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="18">
-        <v>0</v>
-      </c>
-      <c r="E39" s="18">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E39" s="19">
+        <v>3</v>
       </c>
       <c r="F39" s="18">
         <v>1</v>
       </c>
       <c r="G39" s="18">
-        <v>1</v>
-      </c>
-      <c r="H39" s="19">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="H39" s="18">
+        <v>2</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -2536,74 +2598,74 @@
       </c>
       <c r="M39" s="22">
         <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="N39" s="32">
+        <v>19</v>
+      </c>
+      <c r="N39" s="38">
         <f>M39/M40</f>
-        <v>0.61111111111111116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="21">
-        <v>2</v>
+        <v>0.70370370370370372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33"/>
+      <c r="B40" s="20">
+        <v>3</v>
       </c>
       <c r="C40" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="20">
-        <v>2</v>
-      </c>
-      <c r="E40" s="20">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E40" s="21">
+        <v>3</v>
       </c>
       <c r="F40" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="20">
-        <v>2</v>
-      </c>
-      <c r="H40" s="21">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H40" s="20">
+        <v>3</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M40" s="23">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="N40" s="33"/>
-    </row>
-    <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="18">
+        <v>27</v>
+      </c>
+      <c r="N40" s="39"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="19">
         <v>2</v>
       </c>
       <c r="C41" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="18">
         <v>0</v>
       </c>
       <c r="E41" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="18">
-        <v>2</v>
-      </c>
-      <c r="H41" s="18">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H41" s="19">
+        <v>1</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
@@ -2611,80 +2673,80 @@
         <v>2</v>
       </c>
       <c r="L41" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="22">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="N41" s="32">
+        <v>11</v>
+      </c>
+      <c r="N41" s="38">
         <f>M41/M42</f>
-        <v>0.625</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="39"/>
-      <c r="B42" s="20">
+      <c r="A42" s="33"/>
+      <c r="B42" s="21">
         <v>2</v>
       </c>
       <c r="C42" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="20">
         <v>2</v>
       </c>
       <c r="E42" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" s="20">
-        <v>3</v>
-      </c>
-      <c r="H42" s="20">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H42" s="21">
+        <v>2</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" s="20">
         <v>2</v>
       </c>
       <c r="M42" s="23">
         <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="N42" s="33"/>
+        <v>18</v>
+      </c>
+      <c r="N42" s="39"/>
     </row>
     <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="19">
-        <v>3</v>
+      <c r="A43" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="18">
+        <v>2</v>
       </c>
       <c r="C43" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="18">
-        <v>2</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <v>3</v>
+      </c>
+      <c r="F43" s="18">
+        <v>2</v>
       </c>
       <c r="G43" s="18">
         <v>2</v>
       </c>
-      <c r="H43" s="19">
-        <v>3</v>
-      </c>
-      <c r="I43" s="18">
-        <v>1</v>
-      </c>
+      <c r="H43" s="18">
+        <v>2</v>
+      </c>
+      <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18">
         <v>2</v>
@@ -2694,235 +2756,231 @@
       </c>
       <c r="M43" s="22">
         <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="N43" s="38">
+        <f>M43/M44</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="33"/>
+      <c r="B44" s="20">
+        <v>2</v>
+      </c>
+      <c r="C44" s="20">
+        <v>3</v>
+      </c>
+      <c r="D44" s="20">
+        <v>2</v>
+      </c>
+      <c r="E44" s="20">
+        <v>3</v>
+      </c>
+      <c r="F44" s="20">
+        <v>3</v>
+      </c>
+      <c r="G44" s="20">
+        <v>3</v>
+      </c>
+      <c r="H44" s="20">
+        <v>3</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20">
+        <v>3</v>
+      </c>
+      <c r="L44" s="20">
+        <v>2</v>
+      </c>
+      <c r="M44" s="23">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="N44" s="39"/>
+    </row>
+    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="19">
+        <v>3</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3</v>
+      </c>
+      <c r="D45" s="18">
+        <v>2</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19">
+        <v>3</v>
+      </c>
+      <c r="G45" s="18">
+        <v>2</v>
+      </c>
+      <c r="H45" s="19">
+        <v>3</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18">
+        <v>2</v>
+      </c>
+      <c r="L45" s="18">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="N43" s="32">
-        <f>M43/M44</f>
+      <c r="N45" s="38">
+        <f>M45/M46</f>
         <v>0.6785714285714286</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="26">
-        <v>3</v>
-      </c>
-      <c r="C44" s="27">
+    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="33"/>
+      <c r="B46" s="26">
+        <v>3</v>
+      </c>
+      <c r="C46" s="27">
         <v>4</v>
       </c>
-      <c r="D44" s="27">
-        <v>3</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="26">
-        <v>3</v>
-      </c>
-      <c r="G44" s="27">
-        <v>3</v>
-      </c>
-      <c r="H44" s="26">
-        <v>3</v>
-      </c>
-      <c r="I44" s="27">
-        <v>3</v>
-      </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27">
-        <v>3</v>
-      </c>
-      <c r="L44" s="27">
-        <v>3</v>
-      </c>
-      <c r="M44" s="28">
+      <c r="D46" s="27">
+        <v>3</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="26">
+        <v>3</v>
+      </c>
+      <c r="G46" s="27">
+        <v>3</v>
+      </c>
+      <c r="H46" s="26">
+        <v>3</v>
+      </c>
+      <c r="I46" s="27">
+        <v>3</v>
+      </c>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27">
+        <v>3</v>
+      </c>
+      <c r="L46" s="27">
+        <v>3</v>
+      </c>
+      <c r="M46" s="28">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="N44" s="33"/>
-    </row>
-    <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="N46" s="39"/>
+    </row>
+    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="29">
-        <v>2</v>
-      </c>
-      <c r="C45" s="29">
-        <v>1</v>
-      </c>
-      <c r="D45" s="29">
-        <v>2</v>
-      </c>
-      <c r="E45" s="30">
-        <v>3</v>
-      </c>
-      <c r="F45" s="29">
-        <v>1</v>
-      </c>
-      <c r="G45" s="29">
-        <v>0</v>
-      </c>
-      <c r="H45" s="29">
-        <v>0</v>
-      </c>
-      <c r="I45" s="29">
-        <v>2</v>
-      </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30">
-        <v>3</v>
-      </c>
-      <c r="L45" s="29">
-        <v>0</v>
-      </c>
-      <c r="M45" s="31">
+      <c r="B47" s="29">
+        <v>2</v>
+      </c>
+      <c r="C47" s="29">
+        <v>1</v>
+      </c>
+      <c r="D47" s="29">
+        <v>2</v>
+      </c>
+      <c r="E47" s="30">
+        <v>3</v>
+      </c>
+      <c r="F47" s="29">
+        <v>1</v>
+      </c>
+      <c r="G47" s="29">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29">
+        <v>0</v>
+      </c>
+      <c r="I47" s="29">
+        <v>2</v>
+      </c>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30">
+        <v>3</v>
+      </c>
+      <c r="L47" s="29">
+        <v>0</v>
+      </c>
+      <c r="M47" s="31">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="N45" s="36">
-        <f>M45/M46</f>
+      <c r="N47" s="45">
+        <f>M47/M48</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="37"/>
-      <c r="B46" s="29">
-        <v>3</v>
-      </c>
-      <c r="C46" s="29">
-        <v>3</v>
-      </c>
-      <c r="D46" s="29">
-        <v>2</v>
-      </c>
-      <c r="E46" s="30">
-        <v>3</v>
-      </c>
-      <c r="F46" s="29">
-        <v>2</v>
-      </c>
-      <c r="G46" s="29">
-        <v>2</v>
-      </c>
-      <c r="H46" s="29">
-        <v>2</v>
-      </c>
-      <c r="I46" s="29">
-        <v>2</v>
-      </c>
-      <c r="J46" s="29"/>
-      <c r="K46" s="30">
-        <v>3</v>
-      </c>
-      <c r="L46" s="29">
-        <v>2</v>
-      </c>
-      <c r="M46" s="31">
+    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
+      <c r="B48" s="29">
+        <v>3</v>
+      </c>
+      <c r="C48" s="29">
+        <v>3</v>
+      </c>
+      <c r="D48" s="29">
+        <v>2</v>
+      </c>
+      <c r="E48" s="30">
+        <v>3</v>
+      </c>
+      <c r="F48" s="29">
+        <v>2</v>
+      </c>
+      <c r="G48" s="29">
+        <v>2</v>
+      </c>
+      <c r="H48" s="29">
+        <v>2</v>
+      </c>
+      <c r="I48" s="29">
+        <v>2</v>
+      </c>
+      <c r="J48" s="29"/>
+      <c r="K48" s="30">
+        <v>3</v>
+      </c>
+      <c r="L48" s="29">
+        <v>2</v>
+      </c>
+      <c r="M48" s="31">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="N46" s="37"/>
-    </row>
-    <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="43" t="s">
+      <c r="N48" s="36"/>
+    </row>
+    <row r="49" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B49" s="18">
         <v>4</v>
       </c>
-      <c r="C47" s="18">
-        <v>1</v>
-      </c>
-      <c r="D47" s="18">
-        <v>1</v>
-      </c>
-      <c r="E47" s="18">
+      <c r="C49" s="18">
+        <v>1</v>
+      </c>
+      <c r="D49" s="18">
+        <v>1</v>
+      </c>
+      <c r="E49" s="18">
         <v>4</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F49" s="18">
         <v>4</v>
       </c>
-      <c r="G47" s="18">
-        <v>0</v>
-      </c>
-      <c r="H47" s="18">
-        <v>2</v>
-      </c>
-      <c r="I47" s="18">
-        <v>3</v>
-      </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18">
-        <v>3</v>
-      </c>
-      <c r="L47" s="18">
-        <v>1</v>
-      </c>
-      <c r="M47" s="22">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="N47" s="32">
-        <f>M47/M48</f>
-        <v>0.6216216216216216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="20">
-        <v>4</v>
-      </c>
-      <c r="C48" s="20">
-        <v>4</v>
-      </c>
-      <c r="D48" s="20">
-        <v>4</v>
-      </c>
-      <c r="E48" s="20">
-        <v>4</v>
-      </c>
-      <c r="F48" s="20">
-        <v>4</v>
-      </c>
-      <c r="G48" s="20">
-        <v>3</v>
-      </c>
-      <c r="H48" s="20">
-        <v>3</v>
-      </c>
-      <c r="I48" s="20">
-        <v>4</v>
-      </c>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20">
-        <v>4</v>
-      </c>
-      <c r="L48" s="20">
-        <v>3</v>
-      </c>
-      <c r="M48" s="23">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="N48" s="33"/>
-    </row>
-    <row r="49" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="18">
-        <v>3</v>
-      </c>
-      <c r="C49" s="18">
-        <v>2</v>
-      </c>
-      <c r="D49" s="18">
-        <v>2</v>
-      </c>
-      <c r="E49" s="18">
-        <v>3</v>
-      </c>
-      <c r="F49" s="18">
-        <v>1</v>
-      </c>
       <c r="G49" s="18">
         <v>0</v>
       </c>
@@ -2930,34 +2988,34 @@
         <v>2</v>
       </c>
       <c r="I49" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J49" s="18"/>
       <c r="K49" s="18">
         <v>3</v>
       </c>
       <c r="L49" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" s="22">
         <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="N49" s="34">
+        <v>23</v>
+      </c>
+      <c r="N49" s="38">
         <f>M49/M50</f>
-        <v>0.51428571428571423</v>
+        <v>0.6216216216216216</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="20">
         <v>4</v>
       </c>
       <c r="C50" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="20">
         <v>4</v>
@@ -2983,55 +3041,138 @@
       </c>
       <c r="M50" s="23">
         <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="N50" s="39"/>
+    </row>
+    <row r="51" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="N50" s="35"/>
+      <c r="B51" s="18">
+        <v>3</v>
+      </c>
+      <c r="C51" s="18">
+        <v>2</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2</v>
+      </c>
+      <c r="E51" s="18">
+        <v>3</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0</v>
+      </c>
+      <c r="H51" s="18">
+        <v>2</v>
+      </c>
+      <c r="I51" s="18">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18">
+        <v>3</v>
+      </c>
+      <c r="L51" s="18">
+        <v>2</v>
+      </c>
+      <c r="M51" s="22">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="N51" s="43">
+        <f>M51/M52</f>
+        <v>0.51428571428571423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="33"/>
+      <c r="B52" s="20">
+        <v>4</v>
+      </c>
+      <c r="C52" s="20">
+        <v>3</v>
+      </c>
+      <c r="D52" s="20">
+        <v>3</v>
+      </c>
+      <c r="E52" s="20">
+        <v>4</v>
+      </c>
+      <c r="F52" s="20">
+        <v>4</v>
+      </c>
+      <c r="G52" s="20">
+        <v>3</v>
+      </c>
+      <c r="H52" s="20">
+        <v>3</v>
+      </c>
+      <c r="I52" s="20">
+        <v>4</v>
+      </c>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20">
+        <v>4</v>
+      </c>
+      <c r="L52" s="20">
+        <v>3</v>
+      </c>
+      <c r="M52" s="23">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="N52" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="N13:N14"/>
     <mergeCell ref="N19:N20"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="N15:N16"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N47:N48"/>
     <mergeCell ref="N49:N50"/>
-    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N51:N52"/>
     <mergeCell ref="N35:N36"/>
     <mergeCell ref="N37:N38"/>
     <mergeCell ref="N39:N40"/>
     <mergeCell ref="N41:N42"/>
     <mergeCell ref="N43:N44"/>
     <mergeCell ref="N45:N46"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:L6">
     <cfRule type="colorScale" priority="1">
